--- a/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18921190846189.69</v>
+        <v>19140384527949.12</v>
       </c>
       <c r="C3" t="n">
-        <v>18880342956327.57</v>
+        <v>18807411465664.89</v>
       </c>
       <c r="D3" t="n">
-        <v>19042876516979.93</v>
+        <v>19893301502380.52</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24653643147162.66</v>
+        <v>24382509904144.7</v>
       </c>
       <c r="C4" t="n">
-        <v>24388462628266.72</v>
+        <v>24408270190399.42</v>
       </c>
       <c r="D4" t="n">
-        <v>24195413461856.26</v>
+        <v>24090207458932.56</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78341098829475.91</v>
+        <v>54304562052957.8</v>
       </c>
       <c r="C5" t="n">
-        <v>78292591362927.58</v>
+        <v>72382521281328.73</v>
       </c>
       <c r="D5" t="n">
-        <v>64935683316391.51</v>
+        <v>106088177255053.4</v>
       </c>
     </row>
   </sheetData>
